--- a/Spark/sql-api.xlsx
+++ b/Spark/sql-api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyixian/Documents/GitHub/it-skill/Spark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B24D0C-DCA0-4241-8E2B-4CDF79A458A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D4E6D-8E39-A64B-952E-1F022BA4CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{5120A192-4417-9640-B497-3848C38BD92E}"/>
   </bookViews>
@@ -35,9 +35,134 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <r>
+      <t xml:space="preserve">sparkContext.makeRDD( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sparkContext.textFile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t>"input"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="JetBrains Mono"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>spark.createDataset(seq1)</t>
+  </si>
+  <si>
+    <t>spark.createDataFrame</t>
+  </si>
+  <si>
+    <t>rdd.toDF()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdd.toDS()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +177,26 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,8 +221,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,14 +542,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7102B4-7A38-824D-86EB-0ACBC5EA086D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
